--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Epha4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H2">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I2">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J2">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.21196086498183</v>
+        <v>6.588395333333334</v>
       </c>
       <c r="N2">
-        <v>6.21196086498183</v>
+        <v>19.765186</v>
       </c>
       <c r="O2">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877385</v>
       </c>
       <c r="P2">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877386</v>
       </c>
       <c r="Q2">
-        <v>2.616191469330925</v>
+        <v>4.922251645223111</v>
       </c>
       <c r="R2">
-        <v>2.616191469330925</v>
+        <v>44.300264807008</v>
       </c>
       <c r="S2">
-        <v>0.2477481193339931</v>
+        <v>0.2830459255743763</v>
       </c>
       <c r="T2">
-        <v>0.2477481193339931</v>
+        <v>0.2830459255743763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H3">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I3">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J3">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30448680721225</v>
+        <v>2.450022</v>
       </c>
       <c r="N3">
-        <v>2.30448680721225</v>
+        <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="P3">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="Q3">
-        <v>0.9705435783089056</v>
+        <v>1.830434303072</v>
       </c>
       <c r="R3">
-        <v>0.9705435783089056</v>
+        <v>16.473908727648</v>
       </c>
       <c r="S3">
-        <v>0.09190854303917179</v>
+        <v>0.1052560918982879</v>
       </c>
       <c r="T3">
-        <v>0.09190854303917179</v>
+        <v>0.1052560918982879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +658,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H4">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I4">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J4">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.31729569871051</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>1.31729569871051</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.1339566886205344</v>
+        <v>0.002476306759889554</v>
       </c>
       <c r="P4">
-        <v>0.1339566886205344</v>
+        <v>0.002476306759889555</v>
       </c>
       <c r="Q4">
-        <v>0.5547842049328232</v>
+        <v>0.02001829651377778</v>
       </c>
       <c r="R4">
-        <v>0.5547842049328232</v>
+        <v>0.180164668624</v>
       </c>
       <c r="S4">
-        <v>0.05253695878897683</v>
+        <v>0.001151118974313983</v>
       </c>
       <c r="T4">
-        <v>0.05253695878897683</v>
+        <v>0.001151118974313983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +720,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.427698055435893</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H5">
-        <v>0.427698055435893</v>
+        <v>2.241328</v>
       </c>
       <c r="I5">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J5">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.21196086498183</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>6.21196086498183</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.6316984926982493</v>
+        <v>0.0002243934468610964</v>
       </c>
       <c r="P5">
-        <v>0.6316984926982493</v>
+        <v>0.0002243934468610964</v>
       </c>
       <c r="Q5">
-        <v>2.656843582396597</v>
+        <v>0.001813981461333333</v>
       </c>
       <c r="R5">
-        <v>2.656843582396597</v>
+        <v>0.016325833152</v>
       </c>
       <c r="S5">
-        <v>0.2515977934411978</v>
+        <v>0.0001043099984935005</v>
       </c>
       <c r="T5">
-        <v>0.2515977934411978</v>
+        <v>0.0001043099984935005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.427698055435893</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H6">
-        <v>0.427698055435893</v>
+        <v>2.241328</v>
       </c>
       <c r="I6">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J6">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.30448680721225</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N6">
-        <v>2.30448680721225</v>
+        <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.2343448186812165</v>
+        <v>0.004305834220376484</v>
       </c>
       <c r="P6">
-        <v>0.2343448186812165</v>
+        <v>0.004305834220376485</v>
       </c>
       <c r="Q6">
-        <v>0.9856245262223491</v>
+        <v>0.03480807287644445</v>
       </c>
       <c r="R6">
-        <v>0.9856245262223491</v>
+        <v>0.313272655888</v>
       </c>
       <c r="S6">
-        <v>0.09333667875749713</v>
+        <v>0.002001580560054236</v>
       </c>
       <c r="T6">
-        <v>0.09333667875749713</v>
+        <v>0.002001580560054236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,57 +847,57 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.427698055435893</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H7">
-        <v>0.427698055435893</v>
+        <v>2.241328</v>
       </c>
       <c r="I7">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J7">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31729569871051</v>
+        <v>1.706050333333333</v>
       </c>
       <c r="N7">
-        <v>1.31729569871051</v>
+        <v>5.118151</v>
       </c>
       <c r="O7">
-        <v>0.1339566886205344</v>
+        <v>0.157671546464246</v>
       </c>
       <c r="P7">
-        <v>0.1339566886205344</v>
+        <v>0.157671546464246</v>
       </c>
       <c r="Q7">
-        <v>0.5634048087725512</v>
+        <v>1.274606127169778</v>
       </c>
       <c r="R7">
-        <v>0.5634048087725512</v>
+        <v>11.471455144528</v>
       </c>
       <c r="S7">
-        <v>0.05335331279588069</v>
+        <v>0.07329411355017958</v>
       </c>
       <c r="T7">
-        <v>0.05335331279588069</v>
+        <v>0.07329411355017956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.224989815255457</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H8">
-        <v>0.224989815255457</v>
+        <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J8">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.21196086498183</v>
+        <v>6.588395333333334</v>
       </c>
       <c r="N8">
-        <v>6.21196086498183</v>
+        <v>19.765186</v>
       </c>
       <c r="O8">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877385</v>
       </c>
       <c r="P8">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877386</v>
       </c>
       <c r="Q8">
-        <v>1.397627927386391</v>
+        <v>3.161959787799556</v>
       </c>
       <c r="R8">
-        <v>1.397627927386391</v>
+        <v>28.457638090196</v>
       </c>
       <c r="S8">
-        <v>0.1323525799230584</v>
+        <v>0.1818232587997067</v>
       </c>
       <c r="T8">
-        <v>0.1323525799230584</v>
+        <v>0.1818232587997067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,114 +971,672 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.224989815255457</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H9">
-        <v>0.224989815255457</v>
+        <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J9">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.30448680721225</v>
+        <v>2.450022</v>
       </c>
       <c r="N9">
-        <v>2.30448680721225</v>
+        <v>7.350066</v>
       </c>
       <c r="O9">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="P9">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="Q9">
-        <v>0.5184860610133221</v>
+        <v>1.175835791764</v>
       </c>
       <c r="R9">
-        <v>0.5184860610133221</v>
+        <v>10.582522125876</v>
       </c>
       <c r="S9">
-        <v>0.04909959688454754</v>
+        <v>0.06761448905732155</v>
       </c>
       <c r="T9">
-        <v>0.04909959688454754</v>
+        <v>0.06761448905732154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4799286666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.439786</v>
+      </c>
+      <c r="I10">
+        <v>0.2986127170267525</v>
+      </c>
+      <c r="J10">
+        <v>0.2986127170267524</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.080383</v>
+      </c>
+      <c r="O10">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P10">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q10">
+        <v>0.01285936867088889</v>
+      </c>
+      <c r="R10">
+        <v>0.115734318038</v>
+      </c>
+      <c r="S10">
+        <v>0.0007394566897623337</v>
+      </c>
+      <c r="T10">
+        <v>0.0007394566897623337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4799286666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.439786</v>
+      </c>
+      <c r="I11">
+        <v>0.2986127170267525</v>
+      </c>
+      <c r="J11">
+        <v>0.2986127170267524</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002428</v>
+      </c>
+      <c r="N11">
+        <v>0.007284</v>
+      </c>
+      <c r="O11">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P11">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q11">
+        <v>0.001165266802666667</v>
+      </c>
+      <c r="R11">
+        <v>0.010487401224</v>
+      </c>
+      <c r="S11">
+        <v>6.700673685019021E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.70067368501902E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4799286666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.439786</v>
+      </c>
+      <c r="I12">
+        <v>0.2986127170267525</v>
+      </c>
+      <c r="J12">
+        <v>0.2986127170267524</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.139771</v>
+      </c>
+      <c r="O12">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P12">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q12">
+        <v>0.02236003655622222</v>
+      </c>
+      <c r="R12">
+        <v>0.201240329006</v>
+      </c>
+      <c r="S12">
+        <v>0.00128577685561339</v>
+      </c>
+      <c r="T12">
+        <v>0.00128577685561339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4799286666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.439786</v>
+      </c>
+      <c r="I13">
+        <v>0.2986127170267525</v>
+      </c>
+      <c r="J13">
+        <v>0.2986127170267524</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.118151</v>
+      </c>
+      <c r="O13">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P13">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q13">
+        <v>0.8187824617428889</v>
+      </c>
+      <c r="R13">
+        <v>7.369042155686</v>
+      </c>
+      <c r="S13">
+        <v>0.04708272888749834</v>
+      </c>
+      <c r="T13">
+        <v>0.04708272888749833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.224989815255457</v>
-      </c>
-      <c r="H10">
-        <v>0.224989815255457</v>
-      </c>
-      <c r="I10">
-        <v>0.2095185938432828</v>
-      </c>
-      <c r="J10">
-        <v>0.2095185938432828</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.31729569871051</v>
-      </c>
-      <c r="N10">
-        <v>1.31729569871051</v>
-      </c>
-      <c r="O10">
-        <v>0.1339566886205344</v>
-      </c>
-      <c r="P10">
-        <v>0.1339566886205344</v>
-      </c>
-      <c r="Q10">
-        <v>0.2963781158896858</v>
-      </c>
-      <c r="R10">
-        <v>0.2963781158896858</v>
-      </c>
-      <c r="S10">
-        <v>0.02806641703567684</v>
-      </c>
-      <c r="T10">
-        <v>0.02806641703567684</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.140469</v>
+      </c>
+      <c r="I14">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J14">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.588395333333334</v>
+      </c>
+      <c r="N14">
+        <v>19.765186</v>
+      </c>
+      <c r="O14">
+        <v>0.6088932199877385</v>
+      </c>
+      <c r="P14">
+        <v>0.6088932199877386</v>
+      </c>
+      <c r="Q14">
+        <v>2.504620212470444</v>
+      </c>
+      <c r="R14">
+        <v>22.541581912234</v>
+      </c>
+      <c r="S14">
+        <v>0.1440240356136556</v>
+      </c>
+      <c r="T14">
+        <v>0.1440240356136555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.140469</v>
+      </c>
+      <c r="I15">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J15">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.450022</v>
+      </c>
+      <c r="N15">
+        <v>7.350066</v>
+      </c>
+      <c r="O15">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="P15">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="Q15">
+        <v>0.931391380106</v>
+      </c>
+      <c r="R15">
+        <v>8.382522420954</v>
+      </c>
+      <c r="S15">
+        <v>0.05355811816527904</v>
+      </c>
+      <c r="T15">
+        <v>0.05355811816527903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.140469</v>
+      </c>
+      <c r="I16">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J16">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.080383</v>
+      </c>
+      <c r="O16">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P16">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q16">
+        <v>0.01018603551411111</v>
+      </c>
+      <c r="R16">
+        <v>0.091674319627</v>
+      </c>
+      <c r="S16">
+        <v>0.0005857310958132381</v>
+      </c>
+      <c r="T16">
+        <v>0.0005857310958132381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.140469</v>
+      </c>
+      <c r="I17">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J17">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.002428</v>
+      </c>
+      <c r="N17">
+        <v>0.007284</v>
+      </c>
+      <c r="O17">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P17">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q17">
+        <v>0.0009230195773333333</v>
+      </c>
+      <c r="R17">
+        <v>0.008307176195999999</v>
+      </c>
+      <c r="S17">
+        <v>5.307671151740576E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.307671151740575E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.140469</v>
+      </c>
+      <c r="I18">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J18">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.139771</v>
+      </c>
+      <c r="O18">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P18">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q18">
+        <v>0.01771161028877778</v>
+      </c>
+      <c r="R18">
+        <v>0.159404492599</v>
+      </c>
+      <c r="S18">
+        <v>0.001018476804708858</v>
+      </c>
+      <c r="T18">
+        <v>0.001018476804708858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.140469</v>
+      </c>
+      <c r="I19">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J19">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.118151</v>
+      </c>
+      <c r="O19">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P19">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q19">
+        <v>0.6485658392021111</v>
+      </c>
+      <c r="R19">
+        <v>5.837092552819</v>
+      </c>
+      <c r="S19">
+        <v>0.03729470402656807</v>
+      </c>
+      <c r="T19">
+        <v>0.03729470402656806</v>
       </c>
     </row>
   </sheetData>
